--- a/Stock-XLSX/FF-EBonds/MSFT.xlsx
+++ b/Stock-XLSX/FF-EBonds/MSFT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/Freedom-Fund/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bcb0b6f0298eff0f/Investing-Repo/Stock-XLSX/FF-EBonds/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="70" documentId="8_{B454BC29-9393-4074-9E85-DA62F1D90FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC9CB0E5-09AA-42F1-A938-E93A8968B0A9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="6" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="720" activeTab="1" xr2:uid="{9825DF3D-1B58-4C24-A60D-565D808A20BC}"/>
   </bookViews>
   <sheets>
     <sheet name="DYT" sheetId="4" r:id="rId1"/>
@@ -524,6 +524,7 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,7 +540,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2962,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6D69F2-57A8-4AF2-8759-F26D94DB8BCC}">
   <dimension ref="B3:T34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H15:H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9945,8 +9945,8 @@
   </sheetPr>
   <dimension ref="B2:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9969,20 +9969,20 @@
       <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3">
@@ -10305,18 +10305,18 @@
         <f>Table7[[#This Row],[Div]]/Table7[[#This Row],[PriceMedian]]</f>
         <v>2.3552123552123553E-2</v>
       </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="39"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12">
@@ -10561,26 +10561,26 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="G2" s="36" t="s">
+      <c r="D2" s="36"/>
+      <c r="G2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="K2" s="37" t="s">
+      <c r="H2" s="37"/>
+      <c r="K2" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="38"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
